--- a/Link Triggered.xlsx
+++ b/Link Triggered.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3205434E-7C9C-4795-BA01-A575CC5A4332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715617CA-91F0-49CB-A5E6-D70718EA51F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3367,12 +3367,18 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3410,7 +3416,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -3422,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>10.87</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>168</v>
@@ -3439,22 +3445,22 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>15.15</v>
+        <v>14.29</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
         <v>51</v>
@@ -3468,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -3480,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>9.01</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="G4" t="s">
         <v>151</v>
@@ -3497,13 +3503,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -3512,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
         <v>84</v>
@@ -3526,7 +3532,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -3538,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>7.52</v>
+        <v>7.19</v>
       </c>
       <c r="G6" t="s">
         <v>205</v>
@@ -3555,7 +3561,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3584,7 +3590,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -3613,22 +3619,22 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>9.35</v>
+        <v>8.93</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
@@ -3700,7 +3706,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -3758,19 +3764,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>16.13</v>
+        <v>14.93</v>
       </c>
       <c r="G14" t="s">
         <v>165</v>
@@ -3787,7 +3793,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3799,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>9.35</v>
+        <v>8.93</v>
       </c>
       <c r="G15" t="s">
         <v>183</v>
@@ -3845,7 +3851,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -3857,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>10.31</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G17" t="s">
         <v>172</v>
@@ -3874,13 +3880,13 @@
         <v>133</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -3889,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="H18" t="s">
         <v>93</v>
@@ -3903,13 +3909,13 @@
         <v>209</v>
       </c>
       <c r="B19">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -3918,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
         <v>211</v>
@@ -3932,7 +3938,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -3944,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>11.76</v>
+        <v>10.64</v>
       </c>
       <c r="G20" t="s">
         <v>169</v>
@@ -3990,7 +3996,7 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4002,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>16.13</v>
+        <v>15.38</v>
       </c>
       <c r="G22" t="s">
         <v>161</v>
@@ -4019,7 +4025,7 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4031,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>12.35</v>
+        <v>11.76</v>
       </c>
       <c r="G23" t="s">
         <v>165</v>
@@ -4048,7 +4054,7 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -4077,7 +4083,7 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -4106,7 +4112,7 @@
         <v>124</v>
       </c>
       <c r="B26">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -4118,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>17.239999999999998</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="G26" t="s">
         <v>168</v>
@@ -4135,7 +4141,7 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4147,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <v>31.25</v>
+        <v>28.99</v>
       </c>
       <c r="G27" t="s">
         <v>184</v>
@@ -4164,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4176,7 +4182,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>22.47</v>
+        <v>21.28</v>
       </c>
       <c r="G28" t="s">
         <v>165</v>
@@ -4193,7 +4199,7 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -4222,7 +4228,7 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -4251,7 +4257,7 @@
         <v>129</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -4280,7 +4286,7 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4292,7 +4298,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>25.64</v>
+        <v>24.39</v>
       </c>
       <c r="G32" t="s">
         <v>161</v>
@@ -4309,7 +4315,7 @@
         <v>142</v>
       </c>
       <c r="B33">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4321,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>21.28</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
         <v>184</v>
@@ -4338,7 +4344,7 @@
         <v>143</v>
       </c>
       <c r="B34">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -4350,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>22.22</v>
+        <v>20.83</v>
       </c>
       <c r="G34" t="s">
         <v>161</v>
@@ -4367,7 +4373,7 @@
         <v>127</v>
       </c>
       <c r="B35">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -4379,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>18.52</v>
+        <v>17.86</v>
       </c>
       <c r="G35" t="s">
         <v>168</v>

--- a/Link Triggered.xlsx
+++ b/Link Triggered.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715617CA-91F0-49CB-A5E6-D70718EA51F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0FF828-1822-4C59-B5A2-F9223EEB44C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <sheet name="Jan" sheetId="21" r:id="rId10"/>
     <sheet name="Feb" sheetId="22" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Feb!$A$1:$I$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="216">
   <si>
     <t>Mile id</t>
   </si>
@@ -683,6 +686,9 @@
   </si>
   <si>
     <t>ARVIND RAMESHRAO INGLE</t>
+  </si>
+  <si>
+    <t>22%</t>
   </si>
 </sst>
 </file>
@@ -3367,7 +3373,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3416,22 +3422,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>9.26</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
         <v>67</v>
@@ -3445,7 +3451,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -3457,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>14.29</v>
+        <v>13.89</v>
       </c>
       <c r="G3" t="s">
         <v>167</v>
@@ -3474,22 +3480,22 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>8.6199999999999992</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H4" t="s">
         <v>77</v>
@@ -3503,7 +3509,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -3532,22 +3538,22 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>7.19</v>
+        <v>13.79</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H6" t="s">
         <v>87</v>
@@ -3561,7 +3567,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3590,7 +3596,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -3619,22 +3625,22 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>8.93</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
@@ -3677,7 +3683,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -3706,10 +3712,10 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -3721,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
         <v>55</v>
@@ -3793,22 +3799,22 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>8.93</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H15" t="s">
         <v>70</v>
@@ -3851,7 +3857,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -3863,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>10.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="G17" t="s">
         <v>172</v>
@@ -3880,22 +3886,22 @@
         <v>133</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H18" t="s">
         <v>93</v>
@@ -3909,7 +3915,7 @@
         <v>209</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -3938,7 +3944,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -3950,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>10.64</v>
+        <v>10.31</v>
       </c>
       <c r="G20" t="s">
         <v>169</v>
@@ -3996,22 +4002,22 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>15.38</v>
+        <v>14.29</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
         <v>117</v>
@@ -4025,7 +4031,7 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4037,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>11.76</v>
+        <v>11.11</v>
       </c>
       <c r="G23" t="s">
         <v>165</v>
@@ -4054,10 +4060,10 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -4069,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="H24" t="s">
         <v>119</v>
@@ -4083,7 +4089,7 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -4141,7 +4147,7 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4153,7 +4159,7 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <v>28.99</v>
+        <v>27.78</v>
       </c>
       <c r="G27" t="s">
         <v>184</v>
@@ -4170,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4182,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>21.28</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>165</v>
@@ -4199,7 +4205,7 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -4257,7 +4263,7 @@
         <v>129</v>
       </c>
       <c r="B31">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -4286,7 +4292,7 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4298,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>24.39</v>
+        <v>22.99</v>
       </c>
       <c r="G32" t="s">
         <v>161</v>
@@ -4315,22 +4321,22 @@
         <v>142</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>19.23</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H33" t="s">
         <v>110</v>
@@ -4344,22 +4350,22 @@
         <v>143</v>
       </c>
       <c r="B34">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>20.83</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H34" t="s">
         <v>111</v>
@@ -4402,7 +4408,7 @@
         <v>210</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4414,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>45.45</v>
+        <v>43.48</v>
       </c>
       <c r="G36" t="s">
         <v>165</v>

--- a/Link Triggered.xlsx
+++ b/Link Triggered.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0FF828-1822-4C59-B5A2-F9223EEB44C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB1BB00-B736-4D92-8548-34A90273941E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="218">
   <si>
     <t>Mile id</t>
   </si>
@@ -688,7 +688,13 @@
     <t>ARVIND RAMESHRAO INGLE</t>
   </si>
   <si>
-    <t>22%</t>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>11AAS5361</t>
+  </si>
+  <si>
+    <t>MAKARAND  GADALE</t>
   </si>
 </sst>
 </file>
@@ -3370,13 +3376,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8F17F2-8F37-44E4-9BAD-448B05B0979D}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
@@ -3422,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -3434,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>9.26</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="G2" t="s">
         <v>151</v>
@@ -3451,7 +3457,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -3463,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>13.89</v>
+        <v>12.99</v>
       </c>
       <c r="G3" t="s">
         <v>167</v>
@@ -3480,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -3492,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>8.1300000000000008</v>
+        <v>7.63</v>
       </c>
       <c r="G4" t="s">
         <v>156</v>
@@ -3509,7 +3515,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -3538,22 +3544,22 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>13.79</v>
+        <v>13.42</v>
       </c>
       <c r="G6" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="H6" t="s">
         <v>87</v>
@@ -3567,7 +3573,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3596,7 +3602,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -3625,7 +3631,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -3637,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>8.6199999999999992</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="G9" t="s">
         <v>154</v>
@@ -3712,13 +3718,13 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H12" t="s">
         <v>55</v>
@@ -3770,7 +3776,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3782,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>14.93</v>
+        <v>13.89</v>
       </c>
       <c r="G14" t="s">
         <v>165</v>
@@ -3799,7 +3805,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -3811,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>17.239999999999998</v>
+        <v>16.53</v>
       </c>
       <c r="G15" t="s">
         <v>184</v>
@@ -3886,22 +3892,22 @@
         <v>133</v>
       </c>
       <c r="B18">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>8.5500000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G18" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="H18" t="s">
         <v>93</v>
@@ -3915,22 +3921,22 @@
         <v>209</v>
       </c>
       <c r="B19">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
         <v>38</v>
       </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>23.26</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="H19" t="s">
         <v>211</v>
@@ -3944,7 +3950,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -3956,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>10.31</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="G20" t="s">
         <v>169</v>
@@ -4002,7 +4008,7 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4014,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>14.29</v>
+        <v>12.99</v>
       </c>
       <c r="G22" t="s">
         <v>151</v>
@@ -4031,7 +4037,7 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4043,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>11.11</v>
+        <v>10.53</v>
       </c>
       <c r="G23" t="s">
         <v>165</v>
@@ -4060,7 +4066,7 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4089,7 +4095,7 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -4147,22 +4153,22 @@
         <v>38</v>
       </c>
       <c r="B27">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27">
-        <v>27.78</v>
+        <v>26.49</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="H27" t="s">
         <v>60</v>
@@ -4176,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4188,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>18.52</v>
       </c>
       <c r="G28" t="s">
         <v>165</v>
@@ -4205,13 +4211,13 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -4220,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H29" t="s">
         <v>80</v>
@@ -4263,7 +4269,7 @@
         <v>129</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -4292,7 +4298,7 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4304,7 +4310,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>22.99</v>
+        <v>21.98</v>
       </c>
       <c r="G32" t="s">
         <v>161</v>
@@ -4321,7 +4327,7 @@
         <v>142</v>
       </c>
       <c r="B33">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -4333,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>19.23</v>
+        <v>18.18</v>
       </c>
       <c r="G33" t="s">
         <v>172</v>
@@ -4350,7 +4356,7 @@
         <v>143</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -4362,7 +4368,7 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <v>40</v>
+        <v>39.22</v>
       </c>
       <c r="G34" t="s">
         <v>168</v>
@@ -4408,7 +4414,7 @@
         <v>210</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4420,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>43.48</v>
+        <v>41.67</v>
       </c>
       <c r="G36" t="s">
         <v>165</v>
@@ -4430,6 +4436,35 @@
       </c>
       <c r="I36" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Link Triggered.xlsx
+++ b/Link Triggered.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB1BB00-B736-4D92-8548-34A90273941E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D78890-1147-4674-9E4D-2E8F6FB73738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="219">
   <si>
     <t>Mile id</t>
   </si>
@@ -688,13 +688,16 @@
     <t>ARVIND RAMESHRAO INGLE</t>
   </si>
   <si>
-    <t>35%</t>
-  </si>
-  <si>
     <t>11AAS5361</t>
   </si>
   <si>
     <t>MAKARAND  GADALE</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>13%</t>
   </si>
 </sst>
 </file>
@@ -3379,10 +3382,10 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
@@ -3457,22 +3460,22 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>12.99</v>
+        <v>12.35</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="H3" t="s">
         <v>51</v>
@@ -3486,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -3498,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>7.63</v>
+        <v>7.41</v>
       </c>
       <c r="G4" t="s">
         <v>156</v>
@@ -3515,13 +3518,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -3530,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
         <v>84</v>
@@ -3547,10 +3550,10 @@
         <v>149</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3559,7 +3562,7 @@
         <v>13.42</v>
       </c>
       <c r="G6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H6" t="s">
         <v>87</v>
@@ -3605,7 +3608,7 @@
         <v>132</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -3631,22 +3634,22 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>8.1300000000000008</v>
+        <v>7.69</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
@@ -3863,7 +3866,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -3875,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>172</v>
@@ -3892,7 +3895,7 @@
         <v>133</v>
       </c>
       <c r="B18">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -3904,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>8.1999999999999993</v>
+        <v>7.87</v>
       </c>
       <c r="G18" t="s">
         <v>174</v>
@@ -3950,7 +3953,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -3962,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>9.6199999999999992</v>
+        <v>9.52</v>
       </c>
       <c r="G20" t="s">
         <v>169</v>
@@ -4011,10 +4014,10 @@
         <v>77</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4023,7 +4026,7 @@
         <v>12.99</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H22" t="s">
         <v>117</v>
@@ -4037,10 +4040,10 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4049,10 +4052,10 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>10.53</v>
+        <v>10.42</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="H23" t="s">
         <v>118</v>
@@ -4066,10 +4069,10 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -4081,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H24" t="s">
         <v>119</v>
@@ -4182,19 +4185,19 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>-80</v>
+        <v>-50</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>18.52</v>
+        <v>17.86</v>
       </c>
       <c r="G28" t="s">
         <v>165</v>
@@ -4211,7 +4214,7 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4298,7 +4301,7 @@
         <v>141</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4310,7 +4313,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>21.98</v>
+        <v>21.51</v>
       </c>
       <c r="G32" t="s">
         <v>161</v>
@@ -4327,7 +4330,7 @@
         <v>142</v>
       </c>
       <c r="B33">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -4339,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>18.18</v>
+        <v>17.86</v>
       </c>
       <c r="G33" t="s">
         <v>172</v>
@@ -4440,28 +4443,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
         <v>216</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" t="s">
-        <v>217</v>
       </c>
       <c r="I37" t="s">
         <v>81</v>
